--- a/pred_ohlcv/54_21/2019-11-01 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6802.967844600769</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6309.731744600769</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7068.222175019892</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6828.237875019892</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6325.551475019893</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6481.032075019893</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6448.511175019892</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6839.438626536031</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6834.438626536031</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7316.957226536031</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7353.929426536031</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7378.929426536031</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10905.66659542032</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>13835.24099542032</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14376.57369542032</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>14651.58719542032</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14851.58719542032</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>17086.53699542032</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>17656.21349542032</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>17698.02579542032</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>16556.57839542032</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>15556.57839542032</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>15653.83149542032</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15887.62199542032</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>17962.40989542031</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>18791.98249542031</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>19218.74699542032</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>24221.00569542032</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>29031.15119542032</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>32445.15819542032</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>147855.8920980016</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>145899.9516980016</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>146064.6431980015</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>143206.1335980016</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>140700.5702980015</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>140438.3989980016</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>144975.9714980015</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>144165.4067980016</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>140758.6884980015</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>140149.0955980015</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>139550.2266980015</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>139482.4957980015</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>136217.7729980015</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>139923.2060980015</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>139923.2060980015</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>139923.2060980015</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>140183.4986980015</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>141013.4986980015</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>141018.3498980015</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>141018.3498980015</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>141018.3498980015</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>139088.6742980015</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>138020.2308980016</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>138113.5501980016</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>138280.6703980016</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>138145.5077980015</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>138214.0754980016</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>138214.0754980016</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>138214.0754980016</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>138137.4021980016</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>138137.4021980016</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>136611.0798980016</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>136610.0935980016</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>133076.5506574115</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>100189.5022574115</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>101154.2779574115</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>110612.8316574115</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>108844.8404574115</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>108972.0410574115</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>116968.3397223218</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>118129.8340223218</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>121698.3336223218</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7258.937918442909</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>7777.821918442909</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7424.921318442909</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7425.921318442909</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>7225.921318442909</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7068.222175019892</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6828.237875019892</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6325.551475019893</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6513.552875019893</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6481.032075019893</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6448.511175019892</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6944.829775019892</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6994.755826536031</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6839.438626536031</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6834.438626536031</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7316.957226536031</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7353.929426536031</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7378.929426536031</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8296.272826536031</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10905.66659542032</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>13835.24099542032</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14376.57369542032</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>14651.58719542032</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14851.58719542032</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>15995.89539542032</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>17086.53699542032</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>17540.00929542032</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>17656.21349542032</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>17698.02579542032</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>16556.57839542032</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>15556.57839542032</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15648.73149542032</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>15653.83149542032</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15887.62199542032</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>15967.49339542032</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>17212.49339542032</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>17962.40989542031</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>18791.98249542031</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>19218.74699542032</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>24221.00569542032</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>29031.15119542032</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>32445.15819542032</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>147855.8920980016</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>145899.9516980016</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>145108.5141980016</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>146064.6431980015</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>143206.1335980016</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>140219.8866980016</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>140700.5702980015</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>140437.3989980016</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>140438.3989980016</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>142339.2209980015</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>144975.9714980015</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>144165.4067980016</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>140758.6884980015</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>140158.2955980015</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>139986.0955980015</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>139550.2266980015</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>139482.4957980015</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>136837.7729980015</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>139088.6742980015</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>108844.8404574115</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>108972.0410574115</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>116968.3397223218</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>118129.8340223218</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>119107.9992223218</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>121698.3336223218</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
